--- a/fol_stock.xlsx
+++ b/fol_stock.xlsx
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>928</v>
+        <v>846</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="5">
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>987</v>
+        <v>948</v>
       </c>
     </row>
     <row r="7">
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1000</v>
+        <v>974</v>
       </c>
     </row>
     <row r="11">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>996</v>
+        <v>975</v>
       </c>
     </row>
     <row r="22">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>998</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>
